--- a/doc/journal de travail MA-20.xlsx
+++ b/doc/journal de travail MA-20.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Aide de la part de Sebastien pour améliorer visuellement le tableau graphique</t>
+  </si>
+  <si>
+    <t>Affichage des bateaux coulés et messages de victoire, le nombre de cases ratés quand tous les bateaux sont coulés</t>
   </si>
 </sst>
 </file>
@@ -539,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,16 +829,26 @@
       </c>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>43902</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E16" s="5"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="4">
+        <v>43903</v>
+      </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>

--- a/doc/journal de travail MA-20.xlsx
+++ b/doc/journal de travail MA-20.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -135,6 +135,18 @@
   </si>
   <si>
     <t>Affichage des bateaux coulés et messages de victoire, le nombre de cases ratés quand tous les bateaux sont coulés</t>
+  </si>
+  <si>
+    <t>J'ai rajouté le nombre de vies totaux des bateaux après une inspiration de Sebastien Moraz. (Parce que c'est quand même pratique de voir les points de vie)</t>
+  </si>
+  <si>
+    <t>Création des conditions si le chiffre choisi est inférieur à 10 et affichage des points de vie des bateaux</t>
+  </si>
+  <si>
+    <t>j'ai essayé de mettre des couleurs aux tâches touchées.</t>
+  </si>
+  <si>
+    <t>Toujours entrain d'essayer de mettre une couleur aux cases touchées</t>
   </si>
 </sst>
 </file>
@@ -543,7 +555,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,7 +841,7 @@
       </c>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>43902</v>
       </c>
@@ -842,18 +854,30 @@
       <c r="D16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>43903</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="1"/>
+      <c r="B17" s="1">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>

--- a/doc/journal de travail MA-20.xlsx
+++ b/doc/journal de travail MA-20.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MA-20\BatailleNavale\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CPNV\MA-20\Bataille-Navale\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C2BBE8-ABAD-404A-9CB2-069232E73EB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="11520"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -147,12 +148,21 @@
   </si>
   <si>
     <t>Toujours entrain d'essayer de mettre une couleur aux cases touchées</t>
+  </si>
+  <si>
+    <t>Corrections de bugs</t>
+  </si>
+  <si>
+    <t>30mins</t>
+  </si>
+  <si>
+    <t>Quand on retire sur une case un message affiche qu'on a déjà tiré dessus. Une redirection sur le menu a aussi été ajoutée.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -551,26 +561,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="46.85546875" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="46.88671875" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -590,7 +600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>43887</v>
       </c>
@@ -611,7 +621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>43887</v>
       </c>
@@ -629,7 +639,7 @@
       </c>
       <c r="F3" s="14"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>43888</v>
       </c>
@@ -647,7 +657,7 @@
       </c>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>43888</v>
       </c>
@@ -665,7 +675,7 @@
       </c>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>43889</v>
       </c>
@@ -683,7 +693,7 @@
       </c>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>43894</v>
       </c>
@@ -701,7 +711,7 @@
       </c>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>43894</v>
       </c>
@@ -719,7 +729,7 @@
       </c>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>43894</v>
       </c>
@@ -737,7 +747,7 @@
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>43895</v>
       </c>
@@ -755,7 +765,7 @@
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>43896</v>
       </c>
@@ -773,7 +783,7 @@
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>43901</v>
       </c>
@@ -791,7 +801,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>43901</v>
       </c>
@@ -807,7 +817,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>43901</v>
       </c>
@@ -823,7 +833,7 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>43901</v>
       </c>
@@ -841,7 +851,7 @@
       </c>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>43902</v>
       </c>
@@ -859,7 +869,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>43903</v>
       </c>
@@ -879,15 +889,25 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="5"/>
+    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>43905</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -895,7 +915,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -903,7 +923,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -911,7 +931,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -919,7 +939,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -927,7 +947,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>

--- a/doc/journal de travail MA-20.xlsx
+++ b/doc/journal de travail MA-20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CPNV\MA-20\Bataille-Navale\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C2BBE8-ABAD-404A-9CB2-069232E73EB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F992E5D-115A-4406-8D9F-8C96DFCB7516}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -157,13 +157,31 @@
   </si>
   <si>
     <t>Quand on retire sur une case un message affiche qu'on a déjà tiré dessus. Une redirection sur le menu a aussi été ajoutée.</t>
+  </si>
+  <si>
+    <t>Finalisation des corrections de bugs</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Finalisation des bugs, quand on choisis un chiffre supérieur à 10, il redemande jusqu'à ce que le chiffre soit inférieur de 10 est fonctionnel. Quelques test avec les couleurs ont été faites.      J'ai trouvé comment mettre de la couleur sur cette source :  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://stackoverflow.com/questions/2841539/there-was-a-function-in-c-to-adjust-background-color-it-was-actually-a-dos-com</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +192,13 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -564,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -852,68 +877,78 @@
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16" s="12">
         <v>43902</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="13">
         <v>5</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="A17" s="12">
         <v>43903</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="13">
         <v>5</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="A18" s="12">
         <v>43905</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="13">
         <v>5</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="1"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
+        <v>43906</v>
+      </c>
+      <c r="B19" s="13">
+        <v>6</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>

--- a/doc/journal de travail MA-20.xlsx
+++ b/doc/journal de travail MA-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CPNV\MA-20\Bataille-Navale\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F992E5D-115A-4406-8D9F-8C96DFCB7516}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1487A47D-81EC-41BC-AFD9-5F3696A12984}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -159,11 +159,11 @@
     <t>Quand on retire sur une case un message affiche qu'on a déjà tiré dessus. Une redirection sur le menu a aussi été ajoutée.</t>
   </si>
   <si>
-    <t>Finalisation des corrections de bugs</t>
+    <t>Autres corrections de bugs</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Finalisation des bugs, quand on choisis un chiffre supérieur à 10, il redemande jusqu'à ce que le chiffre soit inférieur de 10 est fonctionnel. Quelques test avec les couleurs ont été faites.      J'ai trouvé comment mettre de la couleur sur cette source :  </t>
+      <t xml:space="preserve">Autres correction de bugs, quand on choisis un chiffre supérieur à 10, il redemande jusqu'à ce que le chiffre soit inférieur de 10 est fonctionnel. Quelques test avec les couleurs ont été faites. Aussi une revue de mon code si je devais rajouter quelquechose.(Peut être une addtion de commentaire sera faite)      J'ai trouvé comment mettre de la couleur sur cette source :  </t>
     </r>
     <r>
       <rPr>
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -932,7 +932,7 @@
       </c>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>43906</v>
       </c>

--- a/doc/journal de travail MA-20.xlsx
+++ b/doc/journal de travail MA-20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CPNV\MA-20\Bataille-Navale\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marina\Documents\CPNV\MA-20\Bataille-Navale\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1487A47D-81EC-41BC-AFD9-5F3696A12984}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B854AD58-BBBA-453D-ACEE-CBAD09464BF0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -175,6 +175,15 @@
       </rPr>
       <t>https://stackoverflow.com/questions/2841539/there-was-a-function-in-c-to-adjust-background-color-it-was-actually-a-dos-com</t>
     </r>
+  </si>
+  <si>
+    <t>2h15</t>
+  </si>
+  <si>
+    <t>Visualition de vidéos pour comment créer des fichiers dans le jeu, et création d'utilisateur avant le début de la partie</t>
+  </si>
+  <si>
+    <t>J'ai visualisé des vidéos pour comment faire des fichiers et comment y écrire à l'intérieur, et le programme demande si l'utilisateur veut entrer un nom ou pas et l'affiche pendant le jeu et la fin du jeu dans le message de victoire</t>
   </si>
 </sst>
 </file>
@@ -590,22 +599,22 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B19" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="48.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="46.88671875" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="46.85546875" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -625,7 +634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>43887</v>
       </c>
@@ -646,7 +655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>43887</v>
       </c>
@@ -664,7 +673,7 @@
       </c>
       <c r="F3" s="14"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>43888</v>
       </c>
@@ -682,7 +691,7 @@
       </c>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>43888</v>
       </c>
@@ -700,7 +709,7 @@
       </c>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>43889</v>
       </c>
@@ -718,7 +727,7 @@
       </c>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>43894</v>
       </c>
@@ -736,7 +745,7 @@
       </c>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>43894</v>
       </c>
@@ -754,7 +763,7 @@
       </c>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>43894</v>
       </c>
@@ -772,7 +781,7 @@
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>43895</v>
       </c>
@@ -790,7 +799,7 @@
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>43896</v>
       </c>
@@ -808,7 +817,7 @@
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>43901</v>
       </c>
@@ -826,7 +835,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>43901</v>
       </c>
@@ -842,7 +851,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>43901</v>
       </c>
@@ -858,7 +867,7 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>43901</v>
       </c>
@@ -876,7 +885,7 @@
       </c>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>43902</v>
       </c>
@@ -894,7 +903,7 @@
       </c>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>43903</v>
       </c>
@@ -914,7 +923,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>43905</v>
       </c>
@@ -932,7 +941,7 @@
       </c>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>43906</v>
       </c>
@@ -950,15 +959,23 @@
       </c>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="5"/>
+      <c r="B20" s="1">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -966,7 +983,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -974,7 +991,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -982,7 +999,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>

--- a/doc/journal de travail MA-20.xlsx
+++ b/doc/journal de travail MA-20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marina\Documents\CPNV\MA-20\Bataille-Navale\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CPNV\MA-20\Bataille-Navale\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B854AD58-BBBA-453D-ACEE-CBAD09464BF0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42539482-AC0C-4F8E-B761-8B4538398ACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4068" yWindow="132" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -184,6 +184,18 @@
   </si>
   <si>
     <t>J'ai visualisé des vidéos pour comment faire des fichiers et comment y écrire à l'intérieur, et le programme demande si l'utilisateur veut entrer un nom ou pas et l'affiche pendant le jeu et la fin du jeu dans le message de victoire</t>
+  </si>
+  <si>
+    <t>Un problème de switch a été trouvé. Le bug consistait que si on choisis de quitter la partie quand on a gagné, le programme va rediriger sur la partie déjà existante mais qui est déjà finie. J'ai résolu le problème en remplaçant le switch par des if avec des break à l'intérieur</t>
+  </si>
+  <si>
+    <t>Création du tableaux des scores, création du fichier contenant les noms d'utilisateurs ainsi que leurs scores et correction de bugs divers.</t>
+  </si>
+  <si>
+    <t>3h10</t>
+  </si>
+  <si>
+    <t>Explication d'une découverte de bug juste à droite ainsi qu'un autre que lorsque on retire sur un bateau une fois ses points de vie descendent meme si la case a déjà été touchée. Le bug a été corrigé. J'ai aussi regardé une suite de vidéos explicant les diverses fonctions concernant la création de fichiers.</t>
   </si>
 </sst>
 </file>
@@ -598,23 +610,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="94" zoomScaleNormal="112" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="46.85546875" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="46.88671875" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -634,7 +646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>43887</v>
       </c>
@@ -655,7 +667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>43887</v>
       </c>
@@ -673,7 +685,7 @@
       </c>
       <c r="F3" s="14"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>43888</v>
       </c>
@@ -691,7 +703,7 @@
       </c>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>43888</v>
       </c>
@@ -709,7 +721,7 @@
       </c>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>43889</v>
       </c>
@@ -727,7 +739,7 @@
       </c>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>43894</v>
       </c>
@@ -745,7 +757,7 @@
       </c>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>43894</v>
       </c>
@@ -763,7 +775,7 @@
       </c>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>43894</v>
       </c>
@@ -781,7 +793,7 @@
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>43895</v>
       </c>
@@ -799,7 +811,7 @@
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>43896</v>
       </c>
@@ -817,7 +829,7 @@
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>43901</v>
       </c>
@@ -835,7 +847,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>43901</v>
       </c>
@@ -851,7 +863,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>43901</v>
       </c>
@@ -867,7 +879,7 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>43901</v>
       </c>
@@ -885,7 +897,7 @@
       </c>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>43902</v>
       </c>
@@ -903,7 +915,7 @@
       </c>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>43903</v>
       </c>
@@ -923,7 +935,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>43905</v>
       </c>
@@ -941,7 +953,7 @@
       </c>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>43906</v>
       </c>
@@ -959,8 +971,10 @@
       </c>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+    <row r="20" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>43908</v>
+      </c>
       <c r="B20" s="1">
         <v>6</v>
       </c>
@@ -975,15 +989,27 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>43912</v>
+      </c>
+      <c r="B21" s="1">
+        <v>6</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -991,7 +1017,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -999,7 +1025,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>

--- a/doc/journal de travail MA-20.xlsx
+++ b/doc/journal de travail MA-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CPNV\MA-20\Bataille-Navale\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42539482-AC0C-4F8E-B761-8B4538398ACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6919EFD-E8C7-4391-BEB4-AE8BEA668F14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4068" yWindow="132" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4068" yWindow="132" windowWidth="18264" windowHeight="11712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>Explication d'une découverte de bug juste à droite ainsi qu'un autre que lorsque on retire sur un bateau une fois ses points de vie descendent meme si la case a déjà été touchée. Le bug a été corrigé. J'ai aussi regardé une suite de vidéos explicant les diverses fonctions concernant la création de fichiers.</t>
+  </si>
+  <si>
+    <t>Recherche de solutions pour comment mettre en ordre par le meilleur score au pire dans le tableau des scores</t>
+  </si>
+  <si>
+    <t>toujours entrain d'essayer d'en trouver une</t>
   </si>
 </sst>
 </file>
@@ -610,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="94" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="C20" zoomScale="94" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1009,13 +1015,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="B22" s="1">
+        <v>7</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="1"/>
+      <c r="F22" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>

--- a/doc/journal de travail MA-20.xlsx
+++ b/doc/journal de travail MA-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CPNV\MA-20\Bataille-Navale\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6919EFD-E8C7-4391-BEB4-AE8BEA668F14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4355762F-97D1-40C0-B17F-06CDC0939E63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4068" yWindow="132" windowWidth="18264" windowHeight="11712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4596" yWindow="2316" windowWidth="18264" windowHeight="11712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -202,6 +202,18 @@
   </si>
   <si>
     <t>toujours entrain d'essayer d'en trouver une</t>
+  </si>
+  <si>
+    <t>30.02.2020</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>Création de grille aléatoire du jeu</t>
+  </si>
+  <si>
+    <t>Les bateaux des dernières cases appart le bateau qui a juste une case, qui apparaissait a la fin du tableau s'écrivait mais n'était pas visible. J'ai trouvé une solution qui consite a limiter jusqu'à ou les bateaux peuvent aller comme ça ne dépasse pas de la grille (Je m'excuse si mon explication n'est pas très compréhensible)</t>
   </si>
 </sst>
 </file>
@@ -616,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" zoomScale="94" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="94" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1016,7 +1028,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
+      <c r="A22" s="4">
+        <v>43913</v>
+      </c>
       <c r="B22" s="1">
         <v>7</v>
       </c>
@@ -1031,13 +1045,23 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+    <row r="23" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="1">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="1"/>
+      <c r="F23" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>

--- a/doc/journal de travail MA-20.xlsx
+++ b/doc/journal de travail MA-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CPNV\MA-20\Bataille-Navale\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4355762F-97D1-40C0-B17F-06CDC0939E63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA899C2-9272-49AB-87B4-BF83B2E48A10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4596" yWindow="2316" windowWidth="18264" windowHeight="11712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>Les bateaux des dernières cases appart le bateau qui a juste une case, qui apparaissait a la fin du tableau s'écrivait mais n'était pas visible. J'ai trouvé une solution qui consite a limiter jusqu'à ou les bateaux peuvent aller comme ça ne dépasse pas de la grille (Je m'excuse si mon explication n'est pas très compréhensible)</t>
+  </si>
+  <si>
+    <t>Création du MCD et des Tests de Scénarios et débutement de la documentation</t>
+  </si>
+  <si>
+    <t>Moment théorie sur la documentation d'environ 1h, explicant son ensemble.</t>
   </si>
 </sst>
 </file>
@@ -301,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -345,6 +351,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="94" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="94" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1063,6 +1075,23 @@
         <v>58</v>
       </c>
     </row>
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>43923</v>
+      </c>
+      <c r="B24" s="16">
+        <v>8</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>

--- a/doc/journal de travail MA-20.xlsx
+++ b/doc/journal de travail MA-20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CPNV\MA-20\Bataille-Navale\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA899C2-9272-49AB-87B4-BF83B2E48A10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797F0B5C-7B0A-48E6-8318-4C76DD97D1B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -220,6 +220,21 @@
   </si>
   <si>
     <t>Moment théorie sur la documentation d'environ 1h, explicant son ensemble.</t>
+  </si>
+  <si>
+    <t>Continuation sur la documentation</t>
+  </si>
+  <si>
+    <t>Continuation et finalisation de la documentation</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>3h30</t>
+  </si>
+  <si>
+    <t>Petit rappel des dates de rendus de la part du mandant au début  de la matinée. Ensuite, j'ai mis en place les maquettes,et les descriptions sur tous les points demandé ainsi que la finalisation de la documentation.</t>
   </si>
 </sst>
 </file>
@@ -307,11 +322,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -320,9 +332,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -352,11 +361,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,10 +650,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="94" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="82" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -657,452 +672,487 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+      <c r="A2" s="10">
         <v>43887</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="11">
         <v>3</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="I2" s="15" t="s">
+      <c r="F2" s="11"/>
+      <c r="I2" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+      <c r="A3" s="10">
         <v>43887</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="11">
         <v>3</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
         <v>43888</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="11">
         <v>3</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
         <v>43888</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
         <v>43889</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="11">
         <v>3</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+      <c r="A7" s="10">
         <v>43894</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="11">
         <v>4</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
         <v>43894</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="11">
         <v>4</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>43894</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>4</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>43895</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>4</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>43896</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>4</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>43901</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>5</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>43901</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="7">
         <v>5</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>43901</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <v>5</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
+      <c r="A15" s="10">
         <v>43901</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="11">
         <v>5</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="13"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
+      <c r="A16" s="10">
         <v>43902</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="11">
         <v>5</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="13"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
+      <c r="A17" s="10">
         <v>43903</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="11">
         <v>5</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
+      <c r="A18" s="10">
         <v>43905</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="11">
         <v>5</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" ht="144" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" ht="198.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
         <v>43906</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="11">
         <v>6</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="13"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="A20" s="10">
         <v>43908</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="11">
         <v>6</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" ht="144" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+      <c r="A21" s="10">
         <v>43912</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="11">
         <v>6</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="A22" s="10">
         <v>43913</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="11">
         <v>7</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5" t="s">
+      <c r="E22" s="12"/>
+      <c r="F22" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:6" ht="185.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="11">
         <v>8</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5" t="s">
+      <c r="E23" s="12"/>
+      <c r="F23" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+      <c r="A24" s="10">
         <v>43923</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="14">
         <v>8</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="15" t="s">
         <v>60</v>
       </c>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <v>43927</v>
+      </c>
+      <c r="B25" s="14">
+        <v>9</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <v>43929</v>
+      </c>
+      <c r="B26" s="14">
+        <v>9</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="9"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>